--- a/Excel-XLSX/UN-EST.xlsx
+++ b/Excel-XLSX/UN-EST.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>89TpQw</t>
+    <t>A4JRsg</t>
   </si>
   <si>
     <t>2000</t>
@@ -1206,6 +1206,12 @@
     <t>243</t>
   </si>
   <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
     <t>244</t>
   </si>
   <si>
@@ -1242,34 +1248,46 @@
     <t>255</t>
   </si>
   <si>
+    <t>63944</t>
+  </si>
+  <si>
     <t>256</t>
   </si>
   <si>
     <t>257</t>
   </si>
   <si>
-    <t>64882</t>
-  </si>
-  <si>
     <t>258</t>
   </si>
   <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
     <t>259</t>
   </si>
   <si>
     <t>260</t>
   </si>
   <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
     <t>261</t>
   </si>
   <si>
-    <t>39930</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>262</t>
+    <t>41729</t>
   </si>
 </sst>
 </file>
@@ -18023,7 +18041,7 @@
         <v>30</v>
       </c>
       <c r="N241" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O241" s="2" t="s">
         <v>31</v>
@@ -18091,7 +18109,7 @@
         <v>30</v>
       </c>
       <c r="N242" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O242" s="2" t="s">
         <v>31</v>
@@ -18159,10 +18177,10 @@
         <v>30</v>
       </c>
       <c r="N243" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P243" s="2" t="s">
         <v>31</v>
@@ -18203,16 +18221,16 @@
         <v>392</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>28</v>
@@ -18227,10 +18245,10 @@
         <v>30</v>
       </c>
       <c r="N244" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O244" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="O244" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="P244" s="2" t="s">
         <v>31</v>
@@ -18265,22 +18283,22 @@
         <v>22</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>28</v>
@@ -18295,7 +18313,7 @@
         <v>30</v>
       </c>
       <c r="N245" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O245" s="2" t="s">
         <v>31</v>
@@ -18333,22 +18351,22 @@
         <v>22</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>28</v>
@@ -18363,7 +18381,7 @@
         <v>30</v>
       </c>
       <c r="N246" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O246" s="2" t="s">
         <v>31</v>
@@ -18401,22 +18419,22 @@
         <v>22</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>28</v>
@@ -18431,10 +18449,10 @@
         <v>30</v>
       </c>
       <c r="N247" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P247" s="2" t="s">
         <v>31</v>
@@ -18469,22 +18487,22 @@
         <v>22</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>368</v>
+        <v>189</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>369</v>
+        <v>190</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>369</v>
+        <v>190</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>28</v>
@@ -18499,10 +18517,10 @@
         <v>30</v>
       </c>
       <c r="N248" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O248" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P248" s="2" t="s">
         <v>31</v>
@@ -18537,22 +18555,22 @@
         <v>22</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>28</v>
@@ -18567,10 +18585,10 @@
         <v>30</v>
       </c>
       <c r="N249" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O249" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="O249" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="P249" s="2" t="s">
         <v>31</v>
@@ -18605,22 +18623,22 @@
         <v>22</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>189</v>
+        <v>331</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>28</v>
@@ -18635,7 +18653,7 @@
         <v>30</v>
       </c>
       <c r="N250" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O250" s="2" t="s">
         <v>31</v>
@@ -18673,22 +18691,22 @@
         <v>22</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>373</v>
+        <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>374</v>
+        <v>94</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>374</v>
+        <v>94</v>
       </c>
       <c r="J251" s="2" t="s">
         <v>28</v>
@@ -18703,10 +18721,10 @@
         <v>30</v>
       </c>
       <c r="N251" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O251" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P251" s="2" t="s">
         <v>31</v>
@@ -18741,22 +18759,22 @@
         <v>22</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J252" s="2" t="s">
         <v>28</v>
@@ -18771,7 +18789,7 @@
         <v>30</v>
       </c>
       <c r="N252" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="O252" s="2" t="s">
         <v>31</v>
@@ -18809,22 +18827,22 @@
         <v>22</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>93</v>
+        <v>337</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>94</v>
+        <v>338</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>28</v>
@@ -18839,7 +18857,7 @@
         <v>30</v>
       </c>
       <c r="N253" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O253" s="2" t="s">
         <v>31</v>
@@ -18877,22 +18895,22 @@
         <v>22</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>335</v>
+        <v>36</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>335</v>
+        <v>36</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>28</v>
@@ -18907,7 +18925,7 @@
         <v>30</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O254" s="2" t="s">
         <v>31</v>
@@ -18945,22 +18963,22 @@
         <v>22</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="J255" s="2" t="s">
         <v>28</v>
@@ -18975,10 +18993,10 @@
         <v>30</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="O255" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="P255" s="2" t="s">
         <v>31</v>
@@ -19013,22 +19031,22 @@
         <v>22</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="J256" s="2" t="s">
         <v>28</v>
@@ -19043,7 +19061,7 @@
         <v>30</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O256" s="2" t="s">
         <v>31</v>
@@ -19058,7 +19076,7 @@
         <v>31</v>
       </c>
       <c r="S256" s="2" t="s">
-        <v>31</v>
+        <v>410</v>
       </c>
       <c r="T256" s="2" t="s">
         <v>31</v>
@@ -19081,22 +19099,22 @@
         <v>22</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="J257" s="2" t="s">
         <v>28</v>
@@ -19111,10 +19129,10 @@
         <v>30</v>
       </c>
       <c r="N257" s="2" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="O257" s="2" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="P257" s="2" t="s">
         <v>31</v>
@@ -19149,22 +19167,22 @@
         <v>22</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="J258" s="2" t="s">
         <v>28</v>
@@ -19179,7 +19197,7 @@
         <v>30</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="O258" s="2" t="s">
         <v>31</v>
@@ -19194,7 +19212,7 @@
         <v>31</v>
       </c>
       <c r="S258" s="2" t="s">
-        <v>410</v>
+        <v>31</v>
       </c>
       <c r="T258" s="2" t="s">
         <v>31</v>
@@ -19217,22 +19235,22 @@
         <v>22</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>145</v>
+        <v>414</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>146</v>
+        <v>415</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>147</v>
+        <v>415</v>
       </c>
       <c r="J259" s="2" t="s">
         <v>28</v>
@@ -19247,7 +19265,7 @@
         <v>30</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O259" s="2" t="s">
         <v>31</v>
@@ -19285,22 +19303,22 @@
         <v>22</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J260" s="2" t="s">
         <v>28</v>
@@ -19315,10 +19333,10 @@
         <v>30</v>
       </c>
       <c r="N260" s="2" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="O260" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P260" s="2" t="s">
         <v>31</v>
@@ -19353,22 +19371,22 @@
         <v>22</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>54</v>
+        <v>418</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>55</v>
+        <v>419</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>56</v>
+        <v>421</v>
       </c>
       <c r="J261" s="2" t="s">
         <v>28</v>
@@ -19383,7 +19401,7 @@
         <v>30</v>
       </c>
       <c r="N261" s="2" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="O261" s="2" t="s">
         <v>31</v>
@@ -19421,7 +19439,7 @@
         <v>22</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>392</v>
@@ -19451,13 +19469,13 @@
         <v>30</v>
       </c>
       <c r="N262" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P262" s="2" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="Q262" s="2" t="s">
         <v>31</v>
@@ -19489,7 +19507,7 @@
         <v>22</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>392</v>
@@ -19519,7 +19537,7 @@
         <v>30</v>
       </c>
       <c r="N263" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O263" s="2" t="s">
         <v>31</v>
